--- a/군사특기.xlsx
+++ b/군사특기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeki\OneDrive\Documents\GitHub\kihun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF425DA1-45D5-457E-8762-F5F636365449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DD13CCDB-16D4-4B52-A5D9-57961473C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C0521E51-3F43-40F8-826B-62DA60D802F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C0521E51-3F43-40F8-826B-62DA60D802F0}"/>
   </bookViews>
   <sheets>
     <sheet name="군사특기_육군1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="군사특기_해군" sheetId="1" r:id="rId3"/>
     <sheet name="군사특기_공군" sheetId="3" r:id="rId4"/>
     <sheet name="군사특기_해병대" sheetId="2" r:id="rId5"/>
+    <sheet name="기술자격·면허증" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="222">
   <si>
     <t>K계열전차승무</t>
   </si>
@@ -673,6 +674,50 @@
   </si>
   <si>
     <t>특기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수송운용(차량운전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가기술자격증(기사이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가기술자격증(산업기사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가기술자격증(기능사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일학습병행자격증(L6,L5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일학습병행자격증(L4,L3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일학습병행자격증(L2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반자격증(공인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반자격증(일반)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증 미소지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,12 +780,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1107,7 @@
   <dimension ref="A1:A187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1809,7 +1857,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -2761,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413076E6-A140-4757-84DD-20B74CDE972D}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2821,4 +2869,73 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856FEB85-9CF3-4C19-8A03-98E7286E6D97}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/군사특기.xlsx
+++ b/군사특기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeki\OneDrive\Documents\GitHub\kihun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DD13CCDB-16D4-4B52-A5D9-57961473C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CB876-2D57-4858-8C18-B4F5CD6C22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C0521E51-3F43-40F8-826B-62DA60D802F0}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{C0521E51-3F43-40F8-826B-62DA60D802F0}"/>
   </bookViews>
   <sheets>
     <sheet name="군사특기_육군1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="223">
   <si>
     <t>K계열전차승무</t>
   </si>
@@ -718,6 +718,10 @@
   </si>
   <si>
     <t>자격증 미소지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택하세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2788,7 +2792,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="33.75" thickBot="1">
+    <row r="10" spans="1:1" ht="29.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>209</v>
       </c>
@@ -2873,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856FEB85-9CF3-4C19-8A03-98E7286E6D97}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2890,47 +2894,52 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>212</v>
+      <c r="A2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>221</v>
       </c>
     </row>

--- a/군사특기.xlsx
+++ b/군사특기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeki\OneDrive\Documents\GitHub\kihun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CB876-2D57-4858-8C18-B4F5CD6C22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD092FB9-0A08-4C9F-9921-DD393C11241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{C0521E51-3F43-40F8-826B-62DA60D802F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0521E51-3F43-40F8-826B-62DA60D802F0}"/>
   </bookViews>
   <sheets>
     <sheet name="군사특기_육군1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="224">
   <si>
     <t>K계열전차승무</t>
   </si>
@@ -298,9 +298,6 @@
     <t>기록통신장비운용/정비</t>
   </si>
   <si>
-    <t>M/W운용/정비</t>
-  </si>
-  <si>
     <t>위성운용/정비</t>
   </si>
   <si>
@@ -581,9 +578,6 @@
   </si>
   <si>
     <t>조리(중졸)</t>
-  </si>
-  <si>
-    <t>차량운전(중졸)</t>
   </si>
   <si>
     <t>견인차량운전(중졸)</t>
@@ -722,6 +716,16 @@
   </si>
   <si>
     <t>선택하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MW운용/정비</t>
+  </si>
+  <si>
+    <t>수송운용(중졸)</t>
+  </si>
+  <si>
+    <t>MW운용/정비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5AC55F-6B1A-4201-81A1-FD53CAD60A51}">
   <dimension ref="A1:A187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1121,7 +1125,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1551,507 +1555,507 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5F2A67-BEF4-4C0B-AFE7-221B4D13E3A2}">
   <dimension ref="A1:A112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2073,7 +2079,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2293,342 +2299,342 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2649,87 +2655,87 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2749,57 +2755,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="29.25" thickBot="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27.75" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2821,52 +2827,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856FEB85-9CF3-4C19-8A03-98E7286E6D97}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2890,61 +2896,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>